--- a/Team-Data/2013-14/3-11-2013-14.xlsx
+++ b/Team-Data/2013-14/3-11-2013-14.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>-1</v>
       </c>
       <c r="AD2" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AE2" t="n">
         <v>18</v>
@@ -774,7 +841,7 @@
         <v>2</v>
       </c>
       <c r="AN2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO2" t="n">
         <v>21</v>
@@ -798,7 +865,7 @@
         <v>1</v>
       </c>
       <c r="AV2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AW2" t="n">
         <v>7</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-11-2013-14</t>
+          <t>2014-03-11</t>
         </is>
       </c>
     </row>
@@ -848,37 +915,37 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E3" t="n">
         <v>22</v>
       </c>
       <c r="F3" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G3" t="n">
-        <v>0.344</v>
+        <v>0.349</v>
       </c>
       <c r="H3" t="n">
         <v>48.1</v>
       </c>
       <c r="I3" t="n">
-        <v>36.3</v>
+        <v>36.4</v>
       </c>
       <c r="J3" t="n">
-        <v>83.8</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="K3" t="n">
-        <v>0.434</v>
+        <v>0.435</v>
       </c>
       <c r="L3" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="M3" t="n">
         <v>19.9</v>
       </c>
       <c r="N3" t="n">
-        <v>0.324</v>
+        <v>0.327</v>
       </c>
       <c r="O3" t="n">
         <v>16.3</v>
@@ -887,22 +954,22 @@
         <v>21.2</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.77</v>
+        <v>0.769</v>
       </c>
       <c r="R3" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="S3" t="n">
-        <v>31.1</v>
+        <v>31.3</v>
       </c>
       <c r="T3" t="n">
         <v>43</v>
       </c>
       <c r="U3" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="V3" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="W3" t="n">
         <v>7.2</v>
@@ -914,19 +981,19 @@
         <v>4.6</v>
       </c>
       <c r="Z3" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="AA3" t="n">
         <v>19.3</v>
       </c>
       <c r="AB3" t="n">
-        <v>95.40000000000001</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="AC3" t="n">
-        <v>-3.7</v>
+        <v>-3.6</v>
       </c>
       <c r="AD3" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AE3" t="n">
         <v>24</v>
@@ -941,7 +1008,7 @@
         <v>28</v>
       </c>
       <c r="AI3" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AJ3" t="n">
         <v>11</v>
@@ -959,16 +1026,16 @@
         <v>28</v>
       </c>
       <c r="AO3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AP3" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AQ3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AR3" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AS3" t="n">
         <v>20</v>
@@ -980,7 +1047,7 @@
         <v>24</v>
       </c>
       <c r="AV3" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AW3" t="n">
         <v>22</v>
@@ -998,7 +1065,7 @@
         <v>28</v>
       </c>
       <c r="BB3" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BC3" t="n">
         <v>24</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-11-2013-14</t>
+          <t>2014-03-11</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>-1.4</v>
       </c>
       <c r="AD4" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AE4" t="n">
         <v>15</v>
@@ -1132,7 +1199,7 @@
         <v>14</v>
       </c>
       <c r="AL4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM4" t="n">
         <v>11</v>
@@ -1144,13 +1211,13 @@
         <v>10</v>
       </c>
       <c r="AP4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AQ4" t="n">
         <v>15</v>
       </c>
       <c r="AR4" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AS4" t="n">
         <v>29</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-11-2013-14</t>
+          <t>2014-03-11</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>-1.8</v>
       </c>
       <c r="AD5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AE5" t="n">
         <v>17</v>
@@ -1314,7 +1381,7 @@
         <v>25</v>
       </c>
       <c r="AL5" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AM5" t="n">
         <v>28</v>
@@ -1350,7 +1417,7 @@
         <v>29</v>
       </c>
       <c r="AX5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AY5" t="n">
         <v>20</v>
@@ -1362,7 +1429,7 @@
         <v>9</v>
       </c>
       <c r="BB5" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BC5" t="n">
         <v>18</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-11-2013-14</t>
+          <t>2014-03-11</t>
         </is>
       </c>
     </row>
@@ -1394,16 +1461,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E6" t="n">
         <v>35</v>
       </c>
       <c r="F6" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G6" t="n">
-        <v>0.547</v>
+        <v>0.556</v>
       </c>
       <c r="H6" t="n">
         <v>48.7</v>
@@ -1412,7 +1479,7 @@
         <v>34.6</v>
       </c>
       <c r="J6" t="n">
-        <v>80.3</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="K6" t="n">
         <v>0.431</v>
@@ -1424,25 +1491,25 @@
         <v>17.5</v>
       </c>
       <c r="N6" t="n">
-        <v>0.342</v>
+        <v>0.341</v>
       </c>
       <c r="O6" t="n">
-        <v>18</v>
+        <v>17.9</v>
       </c>
       <c r="P6" t="n">
         <v>23.2</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.773</v>
+        <v>0.772</v>
       </c>
       <c r="R6" t="n">
         <v>11.9</v>
       </c>
       <c r="S6" t="n">
-        <v>33</v>
+        <v>33.1</v>
       </c>
       <c r="T6" t="n">
-        <v>44.9</v>
+        <v>45</v>
       </c>
       <c r="U6" t="n">
         <v>22.2</v>
@@ -1463,16 +1530,16 @@
         <v>19</v>
       </c>
       <c r="AA6" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="AB6" t="n">
         <v>93.09999999999999</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="AD6" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AE6" t="n">
         <v>12</v>
@@ -1493,10 +1560,10 @@
         <v>27</v>
       </c>
       <c r="AK6" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AL6" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AM6" t="n">
         <v>27</v>
@@ -1529,10 +1596,10 @@
         <v>26</v>
       </c>
       <c r="AW6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AX6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AY6" t="n">
         <v>29</v>
@@ -1547,7 +1614,7 @@
         <v>30</v>
       </c>
       <c r="BC6" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-11-2013-14</t>
+          <t>2014-03-11</t>
         </is>
       </c>
     </row>
@@ -1654,10 +1721,10 @@
         <v>-4.6</v>
       </c>
       <c r="AD7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AE7" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF7" t="n">
         <v>22</v>
@@ -1666,13 +1733,13 @@
         <v>23</v>
       </c>
       <c r="AH7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI7" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AK7" t="n">
         <v>30</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-11-2013-14</t>
+          <t>2014-03-11</t>
         </is>
       </c>
     </row>
@@ -1758,46 +1825,46 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E8" t="n">
         <v>38</v>
       </c>
       <c r="F8" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G8" t="n">
-        <v>0.585</v>
+        <v>0.594</v>
       </c>
       <c r="H8" t="n">
         <v>48.1</v>
       </c>
       <c r="I8" t="n">
-        <v>39.4</v>
+        <v>39.5</v>
       </c>
       <c r="J8" t="n">
         <v>83.5</v>
       </c>
       <c r="K8" t="n">
-        <v>0.471</v>
+        <v>0.473</v>
       </c>
       <c r="L8" t="n">
         <v>8.4</v>
       </c>
       <c r="M8" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="N8" t="n">
-        <v>0.377</v>
+        <v>0.378</v>
       </c>
       <c r="O8" t="n">
-        <v>17.1</v>
+        <v>17</v>
       </c>
       <c r="P8" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.796</v>
+        <v>0.8</v>
       </c>
       <c r="R8" t="n">
         <v>10.1</v>
@@ -1809,13 +1876,13 @@
         <v>40.2</v>
       </c>
       <c r="U8" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="V8" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="W8" t="n">
-        <v>8.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="X8" t="n">
         <v>4.2</v>
@@ -1824,31 +1891,31 @@
         <v>3.7</v>
       </c>
       <c r="Z8" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="AA8" t="n">
         <v>19.8</v>
       </c>
       <c r="AB8" t="n">
-        <v>104.2</v>
+        <v>104.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="AD8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AE8" t="n">
         <v>9</v>
       </c>
       <c r="AF8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH8" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AI8" t="n">
         <v>3</v>
@@ -1860,13 +1927,13 @@
         <v>6</v>
       </c>
       <c r="AL8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AM8" t="n">
         <v>12</v>
       </c>
       <c r="AN8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AO8" t="n">
         <v>18</v>
@@ -1899,10 +1966,10 @@
         <v>23</v>
       </c>
       <c r="AY8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AZ8" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA8" t="n">
         <v>21</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-11-2013-14</t>
+          <t>2014-03-11</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>-2.3</v>
       </c>
       <c r="AD9" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="AE9" t="n">
         <v>18</v>
@@ -2030,7 +2097,7 @@
         <v>19</v>
       </c>
       <c r="AH9" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI9" t="n">
         <v>13</v>
@@ -2048,7 +2115,7 @@
         <v>9</v>
       </c>
       <c r="AN9" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AO9" t="n">
         <v>8</v>
@@ -2075,7 +2142,7 @@
         <v>27</v>
       </c>
       <c r="AW9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AX9" t="n">
         <v>4</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-11-2013-14</t>
+          <t>2014-03-11</t>
         </is>
       </c>
     </row>
@@ -2122,22 +2189,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E10" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F10" t="n">
         <v>39</v>
       </c>
       <c r="G10" t="n">
-        <v>0.391</v>
+        <v>0.381</v>
       </c>
       <c r="H10" t="n">
         <v>48.2</v>
       </c>
       <c r="I10" t="n">
-        <v>38.9</v>
+        <v>39</v>
       </c>
       <c r="J10" t="n">
         <v>86.8</v>
@@ -2146,37 +2213,37 @@
         <v>0.449</v>
       </c>
       <c r="L10" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="M10" t="n">
         <v>18.5</v>
       </c>
       <c r="N10" t="n">
-        <v>0.311</v>
+        <v>0.31</v>
       </c>
       <c r="O10" t="n">
         <v>17.3</v>
       </c>
       <c r="P10" t="n">
-        <v>25.7</v>
+        <v>25.8</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.673</v>
+        <v>0.671</v>
       </c>
       <c r="R10" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="S10" t="n">
-        <v>30.7</v>
+        <v>30.6</v>
       </c>
       <c r="T10" t="n">
         <v>45.1</v>
       </c>
       <c r="U10" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="V10" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="W10" t="n">
         <v>8.699999999999999</v>
@@ -2188,7 +2255,7 @@
         <v>4.8</v>
       </c>
       <c r="Z10" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="AA10" t="n">
         <v>20.6</v>
@@ -2197,22 +2264,22 @@
         <v>100.9</v>
       </c>
       <c r="AC10" t="n">
-        <v>-2.7</v>
+        <v>-2.9</v>
       </c>
       <c r="AD10" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AE10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AF10" t="n">
         <v>21</v>
       </c>
       <c r="AG10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI10" t="n">
         <v>8</v>
@@ -2245,13 +2312,13 @@
         <v>1</v>
       </c>
       <c r="AS10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AT10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AU10" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AV10" t="n">
         <v>17</v>
@@ -2260,7 +2327,7 @@
         <v>4</v>
       </c>
       <c r="AX10" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AY10" t="n">
         <v>17</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-11-2013-14</t>
+          <t>2014-03-11</t>
         </is>
       </c>
     </row>
@@ -2304,52 +2371,52 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E11" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F11" t="n">
         <v>24</v>
       </c>
       <c r="G11" t="n">
-        <v>0.631</v>
+        <v>0.625</v>
       </c>
       <c r="H11" t="n">
         <v>48.3</v>
       </c>
       <c r="I11" t="n">
-        <v>39.1</v>
+        <v>39</v>
       </c>
       <c r="J11" t="n">
-        <v>85.2</v>
+        <v>85.3</v>
       </c>
       <c r="K11" t="n">
-        <v>0.459</v>
+        <v>0.458</v>
       </c>
       <c r="L11" t="n">
-        <v>9.199999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="M11" t="n">
         <v>24.3</v>
       </c>
       <c r="N11" t="n">
-        <v>0.377</v>
+        <v>0.376</v>
       </c>
       <c r="O11" t="n">
         <v>16.3</v>
       </c>
       <c r="P11" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.746</v>
+        <v>0.745</v>
       </c>
       <c r="R11" t="n">
-        <v>11.2</v>
+        <v>11.3</v>
       </c>
       <c r="S11" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="T11" t="n">
         <v>45.5</v>
@@ -2367,22 +2434,22 @@
         <v>5.2</v>
       </c>
       <c r="Y11" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Z11" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="AA11" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="AB11" t="n">
-        <v>103.6</v>
+        <v>103.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="AD11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AE11" t="n">
         <v>8</v>
@@ -2394,13 +2461,13 @@
         <v>8</v>
       </c>
       <c r="AH11" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI11" t="n">
         <v>6</v>
       </c>
       <c r="AJ11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AK11" t="n">
         <v>10</v>
@@ -2412,13 +2479,13 @@
         <v>7</v>
       </c>
       <c r="AN11" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AO11" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP11" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AQ11" t="n">
         <v>23</v>
@@ -2430,16 +2497,16 @@
         <v>2</v>
       </c>
       <c r="AT11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AU11" t="n">
         <v>10</v>
       </c>
       <c r="AV11" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AW11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AX11" t="n">
         <v>8</v>
@@ -2448,16 +2515,16 @@
         <v>10</v>
       </c>
       <c r="AZ11" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BA11" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BB11" t="n">
         <v>10</v>
       </c>
       <c r="BC11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-11-2013-14</t>
+          <t>2014-03-11</t>
         </is>
       </c>
     </row>
@@ -2486,28 +2553,28 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E12" t="n">
         <v>44</v>
       </c>
       <c r="F12" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6879999999999999</v>
+        <v>0.698</v>
       </c>
       <c r="H12" t="n">
         <v>48.4</v>
       </c>
       <c r="I12" t="n">
-        <v>37.8</v>
+        <v>37.9</v>
       </c>
       <c r="J12" t="n">
         <v>79.59999999999999</v>
       </c>
       <c r="K12" t="n">
-        <v>0.475</v>
+        <v>0.476</v>
       </c>
       <c r="L12" t="n">
         <v>9.199999999999999</v>
@@ -2522,7 +2589,7 @@
         <v>21.7</v>
       </c>
       <c r="P12" t="n">
-        <v>31.2</v>
+        <v>31.1</v>
       </c>
       <c r="Q12" t="n">
         <v>0.697</v>
@@ -2531,7 +2598,7 @@
         <v>11.2</v>
       </c>
       <c r="S12" t="n">
-        <v>34.1</v>
+        <v>34</v>
       </c>
       <c r="T12" t="n">
         <v>45.2</v>
@@ -2540,7 +2607,7 @@
         <v>20.8</v>
       </c>
       <c r="V12" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="W12" t="n">
         <v>7.5</v>
@@ -2549,7 +2616,7 @@
         <v>5.6</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="Z12" t="n">
         <v>20.2</v>
@@ -2558,13 +2625,13 @@
         <v>24.6</v>
       </c>
       <c r="AB12" t="n">
-        <v>106.5</v>
+        <v>106.6</v>
       </c>
       <c r="AC12" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="AD12" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AE12" t="n">
         <v>5</v>
@@ -2573,13 +2640,13 @@
         <v>5</v>
       </c>
       <c r="AG12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AH12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI12" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ12" t="n">
         <v>28</v>
@@ -2594,7 +2661,7 @@
         <v>1</v>
       </c>
       <c r="AN12" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AO12" t="n">
         <v>1</v>
@@ -2615,7 +2682,7 @@
         <v>5</v>
       </c>
       <c r="AU12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AV12" t="n">
         <v>29</v>
@@ -2639,7 +2706,7 @@
         <v>3</v>
       </c>
       <c r="BC12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-11-2013-14</t>
+          <t>2014-03-11</t>
         </is>
       </c>
     </row>
@@ -2668,16 +2735,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E13" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F13" t="n">
         <v>17</v>
       </c>
       <c r="G13" t="n">
-        <v>0.734</v>
+        <v>0.73</v>
       </c>
       <c r="H13" t="n">
         <v>48.2</v>
@@ -2686,10 +2753,10 @@
         <v>36.7</v>
       </c>
       <c r="J13" t="n">
-        <v>80.8</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="K13" t="n">
-        <v>0.455</v>
+        <v>0.453</v>
       </c>
       <c r="L13" t="n">
         <v>6.8</v>
@@ -2698,13 +2765,13 @@
         <v>19.2</v>
       </c>
       <c r="N13" t="n">
-        <v>0.353</v>
+        <v>0.354</v>
       </c>
       <c r="O13" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="P13" t="n">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="Q13" t="n">
         <v>0.783</v>
@@ -2716,7 +2783,7 @@
         <v>34.9</v>
       </c>
       <c r="T13" t="n">
-        <v>45.1</v>
+        <v>45.2</v>
       </c>
       <c r="U13" t="n">
         <v>20.3</v>
@@ -2728,7 +2795,7 @@
         <v>7</v>
       </c>
       <c r="X13" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="Y13" t="n">
         <v>4.5</v>
@@ -2740,13 +2807,13 @@
         <v>21.9</v>
       </c>
       <c r="AB13" t="n">
-        <v>98.5</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="AC13" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AE13" t="n">
         <v>1</v>
@@ -2758,13 +2825,13 @@
         <v>2</v>
       </c>
       <c r="AH13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI13" t="n">
         <v>22</v>
       </c>
       <c r="AJ13" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AK13" t="n">
         <v>13</v>
@@ -2776,13 +2843,13 @@
         <v>24</v>
       </c>
       <c r="AN13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AO13" t="n">
         <v>11</v>
       </c>
       <c r="AP13" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AQ13" t="n">
         <v>5</v>
@@ -2794,7 +2861,7 @@
         <v>1</v>
       </c>
       <c r="AT13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AU13" t="n">
         <v>27</v>
@@ -2806,13 +2873,13 @@
         <v>24</v>
       </c>
       <c r="AX13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY13" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ13" t="n">
         <v>13</v>
-      </c>
-      <c r="AZ13" t="n">
-        <v>14</v>
       </c>
       <c r="BA13" t="n">
         <v>6</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-11-2013-14</t>
+          <t>2014-03-11</t>
         </is>
       </c>
     </row>
@@ -2934,10 +3001,10 @@
         <v>4</v>
       </c>
       <c r="AF14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH14" t="n">
         <v>23</v>
@@ -2973,7 +3040,7 @@
         <v>21</v>
       </c>
       <c r="AS14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AT14" t="n">
         <v>14</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-11-2013-14</t>
+          <t>2014-03-11</t>
         </is>
       </c>
     </row>
@@ -3110,19 +3177,19 @@
         <v>-5.9</v>
       </c>
       <c r="AD15" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AE15" t="n">
         <v>24</v>
       </c>
       <c r="AF15" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AG15" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AH15" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AI15" t="n">
         <v>16</v>
@@ -3164,7 +3231,7 @@
         <v>4</v>
       </c>
       <c r="AV15" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AW15" t="n">
         <v>25</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-11-2013-14</t>
+          <t>2014-03-11</t>
         </is>
       </c>
     </row>
@@ -3214,46 +3281,46 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E16" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F16" t="n">
         <v>26</v>
       </c>
       <c r="G16" t="n">
-        <v>0.587</v>
+        <v>0.581</v>
       </c>
       <c r="H16" t="n">
         <v>48.3</v>
       </c>
       <c r="I16" t="n">
-        <v>37.9</v>
+        <v>37.8</v>
       </c>
       <c r="J16" t="n">
         <v>82</v>
       </c>
       <c r="K16" t="n">
-        <v>0.462</v>
+        <v>0.46</v>
       </c>
       <c r="L16" t="n">
         <v>5.1</v>
       </c>
       <c r="M16" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="N16" t="n">
-        <v>0.361</v>
+        <v>0.359</v>
       </c>
       <c r="O16" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="P16" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.749</v>
+        <v>0.75</v>
       </c>
       <c r="R16" t="n">
         <v>11.4</v>
@@ -3265,10 +3332,10 @@
         <v>42.3</v>
       </c>
       <c r="U16" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="V16" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="W16" t="n">
         <v>7.7</v>
@@ -3286,13 +3353,13 @@
         <v>18.9</v>
       </c>
       <c r="AB16" t="n">
-        <v>96</v>
+        <v>95.8</v>
       </c>
       <c r="AC16" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AD16" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="AE16" t="n">
         <v>10</v>
@@ -3301,19 +3368,19 @@
         <v>9</v>
       </c>
       <c r="AG16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH16" t="n">
         <v>16</v>
       </c>
       <c r="AI16" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ16" t="n">
         <v>22</v>
       </c>
       <c r="AK16" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AL16" t="n">
         <v>30</v>
@@ -3322,7 +3389,7 @@
         <v>30</v>
       </c>
       <c r="AN16" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AO16" t="n">
         <v>29</v>
@@ -3343,7 +3410,7 @@
         <v>19</v>
       </c>
       <c r="AU16" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AV16" t="n">
         <v>4</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-11-2013-14</t>
+          <t>2014-03-11</t>
         </is>
       </c>
     </row>
@@ -3510,7 +3577,7 @@
         <v>14</v>
       </c>
       <c r="AP17" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AQ17" t="n">
         <v>14</v>
@@ -3528,7 +3595,7 @@
         <v>9</v>
       </c>
       <c r="AV17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AW17" t="n">
         <v>2</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-11-2013-14</t>
+          <t>2014-03-11</t>
         </is>
       </c>
     </row>
@@ -3578,64 +3645,64 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
       </c>
       <c r="F18" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G18" t="n">
-        <v>0.203</v>
+        <v>0.206</v>
       </c>
       <c r="H18" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="I18" t="n">
-        <v>35.6</v>
+        <v>35.5</v>
       </c>
       <c r="J18" t="n">
-        <v>82.59999999999999</v>
+        <v>82.7</v>
       </c>
       <c r="K18" t="n">
-        <v>0.431</v>
+        <v>0.43</v>
       </c>
       <c r="L18" t="n">
         <v>7.3</v>
       </c>
       <c r="M18" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="N18" t="n">
-        <v>0.356</v>
+        <v>0.357</v>
       </c>
       <c r="O18" t="n">
         <v>16.1</v>
       </c>
       <c r="P18" t="n">
-        <v>21.3</v>
+        <v>21.1</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.757</v>
+        <v>0.76</v>
       </c>
       <c r="R18" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="S18" t="n">
         <v>29.6</v>
       </c>
       <c r="T18" t="n">
-        <v>41.3</v>
+        <v>41.4</v>
       </c>
       <c r="U18" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="V18" t="n">
         <v>15.2</v>
       </c>
       <c r="W18" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="X18" t="n">
         <v>5.2</v>
@@ -3644,19 +3711,19 @@
         <v>5.2</v>
       </c>
       <c r="Z18" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="AA18" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="AB18" t="n">
-        <v>94.5</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="AC18" t="n">
         <v>-8</v>
       </c>
       <c r="AD18" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AE18" t="n">
         <v>30</v>
@@ -3668,16 +3735,16 @@
         <v>30</v>
       </c>
       <c r="AH18" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI18" t="n">
         <v>28</v>
       </c>
       <c r="AJ18" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AK18" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AL18" t="n">
         <v>18</v>
@@ -3689,16 +3756,16 @@
         <v>17</v>
       </c>
       <c r="AO18" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AP18" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AQ18" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR18" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AS18" t="n">
         <v>28</v>
@@ -3716,7 +3783,7 @@
         <v>28</v>
       </c>
       <c r="AX18" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AY18" t="n">
         <v>19</v>
@@ -3725,7 +3792,7 @@
         <v>17</v>
       </c>
       <c r="BA18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BB18" t="n">
         <v>29</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-11-2013-14</t>
+          <t>2014-03-11</t>
         </is>
       </c>
     </row>
@@ -3760,16 +3827,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E19" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F19" t="n">
         <v>31</v>
       </c>
       <c r="G19" t="n">
-        <v>0.508</v>
+        <v>0.5</v>
       </c>
       <c r="H19" t="n">
         <v>48.2</v>
@@ -3778,19 +3845,19 @@
         <v>38.6</v>
       </c>
       <c r="J19" t="n">
-        <v>87.8</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="K19" t="n">
-        <v>0.44</v>
+        <v>0.439</v>
       </c>
       <c r="L19" t="n">
         <v>7.4</v>
       </c>
       <c r="M19" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="N19" t="n">
-        <v>0.34</v>
+        <v>0.339</v>
       </c>
       <c r="O19" t="n">
         <v>21.7</v>
@@ -3799,25 +3866,25 @@
         <v>27.9</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.777</v>
+        <v>0.778</v>
       </c>
       <c r="R19" t="n">
         <v>12.9</v>
       </c>
       <c r="S19" t="n">
-        <v>32.5</v>
+        <v>32.7</v>
       </c>
       <c r="T19" t="n">
-        <v>45.4</v>
+        <v>45.6</v>
       </c>
       <c r="U19" t="n">
         <v>23.3</v>
       </c>
       <c r="V19" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="W19" t="n">
-        <v>8.699999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="X19" t="n">
         <v>3.5</v>
@@ -3826,22 +3893,22 @@
         <v>5.8</v>
       </c>
       <c r="Z19" t="n">
-        <v>18.6</v>
+        <v>18.5</v>
       </c>
       <c r="AA19" t="n">
         <v>23.7</v>
       </c>
       <c r="AB19" t="n">
-        <v>106.3</v>
+        <v>106.2</v>
       </c>
       <c r="AC19" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="AD19" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="AE19" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AF19" t="n">
         <v>16</v>
@@ -3883,13 +3950,13 @@
         <v>2</v>
       </c>
       <c r="AS19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AT19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU19" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV19" t="n">
         <v>5</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-11-2013-14</t>
+          <t>2014-03-11</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>-2.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="AE20" t="n">
         <v>20</v>
@@ -4074,10 +4141,10 @@
         <v>17</v>
       </c>
       <c r="AV20" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AW20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AX20" t="n">
         <v>1</v>
@@ -4089,13 +4156,13 @@
         <v>28</v>
       </c>
       <c r="BA20" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BB20" t="n">
         <v>19</v>
       </c>
       <c r="BC20" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-11-2013-14</t>
+          <t>2014-03-11</t>
         </is>
       </c>
     </row>
@@ -4211,7 +4278,7 @@
         <v>22</v>
       </c>
       <c r="AG21" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AH21" t="n">
         <v>8</v>
@@ -4229,7 +4296,7 @@
         <v>5</v>
       </c>
       <c r="AM21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AN21" t="n">
         <v>11</v>
@@ -4265,7 +4332,7 @@
         <v>18</v>
       </c>
       <c r="AY21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ21" t="n">
         <v>26</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-11-2013-14</t>
+          <t>2014-03-11</t>
         </is>
       </c>
     </row>
@@ -4306,22 +4373,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E22" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F22" t="n">
         <v>17</v>
       </c>
       <c r="G22" t="n">
-        <v>0.734</v>
+        <v>0.73</v>
       </c>
       <c r="H22" t="n">
         <v>48.2</v>
       </c>
       <c r="I22" t="n">
-        <v>39.1</v>
+        <v>39.2</v>
       </c>
       <c r="J22" t="n">
         <v>82.5</v>
@@ -4333,37 +4400,37 @@
         <v>7.7</v>
       </c>
       <c r="M22" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="N22" t="n">
         <v>0.359</v>
       </c>
       <c r="O22" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="P22" t="n">
-        <v>24.6</v>
+        <v>24.5</v>
       </c>
       <c r="Q22" t="n">
         <v>0.803</v>
       </c>
       <c r="R22" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="S22" t="n">
-        <v>34.2</v>
+        <v>34.1</v>
       </c>
       <c r="T22" t="n">
         <v>45.2</v>
       </c>
       <c r="U22" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="V22" t="n">
         <v>15.8</v>
       </c>
       <c r="W22" t="n">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="X22" t="n">
         <v>6.1</v>
@@ -4372,19 +4439,19 @@
         <v>3.6</v>
       </c>
       <c r="Z22" t="n">
-        <v>22.1</v>
+        <v>22</v>
       </c>
       <c r="AA22" t="n">
         <v>20.2</v>
       </c>
       <c r="AB22" t="n">
-        <v>105.8</v>
+        <v>105.7</v>
       </c>
       <c r="AC22" t="n">
         <v>6.6</v>
       </c>
       <c r="AD22" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AE22" t="n">
         <v>1</v>
@@ -4396,7 +4463,7 @@
         <v>2</v>
       </c>
       <c r="AH22" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI22" t="n">
         <v>4</v>
@@ -4420,28 +4487,28 @@
         <v>5</v>
       </c>
       <c r="AP22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AQ22" t="n">
         <v>2</v>
       </c>
       <c r="AR22" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AS22" t="n">
         <v>3</v>
       </c>
       <c r="AT22" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AU22" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AV22" t="n">
         <v>28</v>
       </c>
       <c r="AW22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX22" t="n">
         <v>2</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-11-2013-14</t>
+          <t>2014-03-11</t>
         </is>
       </c>
     </row>
@@ -4617,7 +4684,7 @@
         <v>20</v>
       </c>
       <c r="AU23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AV23" t="n">
         <v>12</v>
@@ -4626,7 +4693,7 @@
         <v>14</v>
       </c>
       <c r="AX23" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AY23" t="n">
         <v>25</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-11-2013-14</t>
+          <t>2014-03-11</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>-11.2</v>
       </c>
       <c r="AD24" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="AE24" t="n">
         <v>29</v>
@@ -4760,7 +4827,7 @@
         <v>29</v>
       </c>
       <c r="AH24" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AI24" t="n">
         <v>12</v>
@@ -4790,10 +4857,10 @@
         <v>28</v>
       </c>
       <c r="AR24" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AS24" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AT24" t="n">
         <v>12</v>
@@ -4808,13 +4875,13 @@
         <v>1</v>
       </c>
       <c r="AX24" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AY24" t="n">
         <v>30</v>
       </c>
       <c r="AZ24" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BA24" t="n">
         <v>12</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-11-2013-14</t>
+          <t>2014-03-11</t>
         </is>
       </c>
     </row>
@@ -4930,19 +4997,19 @@
         <v>2.5</v>
       </c>
       <c r="AD25" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="AE25" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF25" t="n">
         <v>11</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>10</v>
       </c>
       <c r="AG25" t="n">
         <v>11</v>
       </c>
       <c r="AH25" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AI25" t="n">
         <v>9</v>
@@ -4951,16 +5018,16 @@
         <v>10</v>
       </c>
       <c r="AK25" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL25" t="n">
         <v>4</v>
       </c>
       <c r="AM25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AN25" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AO25" t="n">
         <v>9</v>
@@ -4969,7 +5036,7 @@
         <v>9</v>
       </c>
       <c r="AQ25" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AR25" t="n">
         <v>13</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-11-2013-14</t>
+          <t>2014-03-11</t>
         </is>
       </c>
     </row>
@@ -5034,67 +5101,67 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E26" t="n">
         <v>42</v>
       </c>
       <c r="F26" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G26" t="n">
-        <v>0.656</v>
+        <v>0.667</v>
       </c>
       <c r="H26" t="n">
         <v>48.4</v>
       </c>
       <c r="I26" t="n">
-        <v>39.5</v>
+        <v>39.6</v>
       </c>
       <c r="J26" t="n">
         <v>87.7</v>
       </c>
       <c r="K26" t="n">
-        <v>0.45</v>
+        <v>0.451</v>
       </c>
       <c r="L26" t="n">
         <v>9.4</v>
       </c>
       <c r="M26" t="n">
-        <v>24.9</v>
+        <v>25</v>
       </c>
       <c r="N26" t="n">
-        <v>0.377</v>
+        <v>0.376</v>
       </c>
       <c r="O26" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="P26" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.82</v>
+        <v>0.821</v>
       </c>
       <c r="R26" t="n">
         <v>12.8</v>
       </c>
       <c r="S26" t="n">
-        <v>33.7</v>
+        <v>33.9</v>
       </c>
       <c r="T26" t="n">
-        <v>46.5</v>
+        <v>46.7</v>
       </c>
       <c r="U26" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="V26" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="W26" t="n">
         <v>5.6</v>
       </c>
       <c r="X26" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Y26" t="n">
         <v>3.7</v>
@@ -5103,16 +5170,16 @@
         <v>19.7</v>
       </c>
       <c r="AA26" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="AB26" t="n">
-        <v>107.5</v>
+        <v>107.7</v>
       </c>
       <c r="AC26" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="AD26" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AE26" t="n">
         <v>7</v>
@@ -5124,7 +5191,7 @@
         <v>7</v>
       </c>
       <c r="AH26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI26" t="n">
         <v>2</v>
@@ -5139,16 +5206,16 @@
         <v>3</v>
       </c>
       <c r="AM26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AN26" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AO26" t="n">
         <v>7</v>
       </c>
       <c r="AP26" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AQ26" t="n">
         <v>1</v>
@@ -5163,10 +5230,10 @@
         <v>1</v>
       </c>
       <c r="AU26" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AV26" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AW26" t="n">
         <v>30</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-11-2013-14</t>
+          <t>2014-03-11</t>
         </is>
       </c>
     </row>
@@ -5216,37 +5283,37 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E27" t="n">
         <v>22</v>
       </c>
       <c r="F27" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G27" t="n">
-        <v>0.344</v>
+        <v>0.349</v>
       </c>
       <c r="H27" t="n">
         <v>48.4</v>
       </c>
       <c r="I27" t="n">
-        <v>37</v>
+        <v>37.1</v>
       </c>
       <c r="J27" t="n">
         <v>82.7</v>
       </c>
       <c r="K27" t="n">
-        <v>0.448</v>
+        <v>0.449</v>
       </c>
       <c r="L27" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="M27" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="N27" t="n">
-        <v>0.337</v>
+        <v>0.338</v>
       </c>
       <c r="O27" t="n">
         <v>20.7</v>
@@ -5255,7 +5322,7 @@
         <v>26.9</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.768</v>
+        <v>0.771</v>
       </c>
       <c r="R27" t="n">
         <v>12.1</v>
@@ -5264,7 +5331,7 @@
         <v>31.8</v>
       </c>
       <c r="T27" t="n">
-        <v>43.9</v>
+        <v>43.8</v>
       </c>
       <c r="U27" t="n">
         <v>19.1</v>
@@ -5279,22 +5346,22 @@
         <v>4</v>
       </c>
       <c r="Y27" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="Z27" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="AA27" t="n">
         <v>23.1</v>
       </c>
       <c r="AB27" t="n">
-        <v>101.1</v>
+        <v>101.3</v>
       </c>
       <c r="AC27" t="n">
-        <v>-2.6</v>
+        <v>-2.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AE27" t="n">
         <v>24</v>
@@ -5306,13 +5373,13 @@
         <v>24</v>
       </c>
       <c r="AH27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI27" t="n">
         <v>20</v>
       </c>
       <c r="AJ27" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AK27" t="n">
         <v>18</v>
@@ -5333,13 +5400,13 @@
         <v>4</v>
       </c>
       <c r="AQ27" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR27" t="n">
         <v>6</v>
       </c>
       <c r="AS27" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AT27" t="n">
         <v>11</v>
@@ -5348,7 +5415,7 @@
         <v>30</v>
       </c>
       <c r="AV27" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AW27" t="n">
         <v>19</v>
@@ -5369,7 +5436,7 @@
         <v>14</v>
       </c>
       <c r="BC27" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-11-2013-14</t>
+          <t>2014-03-11</t>
         </is>
       </c>
     </row>
@@ -5398,16 +5465,16 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E28" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F28" t="n">
         <v>16</v>
       </c>
       <c r="G28" t="n">
-        <v>0.746</v>
+        <v>0.742</v>
       </c>
       <c r="H28" t="n">
         <v>48.2</v>
@@ -5416,28 +5483,28 @@
         <v>40.2</v>
       </c>
       <c r="J28" t="n">
-        <v>82.2</v>
+        <v>82.3</v>
       </c>
       <c r="K28" t="n">
         <v>0.489</v>
       </c>
       <c r="L28" t="n">
-        <v>8.199999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="M28" t="n">
         <v>20.8</v>
       </c>
       <c r="N28" t="n">
-        <v>0.395</v>
+        <v>0.392</v>
       </c>
       <c r="O28" t="n">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="P28" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.789</v>
+        <v>0.788</v>
       </c>
       <c r="R28" t="n">
         <v>8.9</v>
@@ -5446,7 +5513,7 @@
         <v>33.6</v>
       </c>
       <c r="T28" t="n">
-        <v>42.4</v>
+        <v>42.5</v>
       </c>
       <c r="U28" t="n">
         <v>25</v>
@@ -5455,7 +5522,7 @@
         <v>14.8</v>
       </c>
       <c r="W28" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="X28" t="n">
         <v>5.1</v>
@@ -5464,7 +5531,7 @@
         <v>4.7</v>
       </c>
       <c r="Z28" t="n">
-        <v>18.1</v>
+        <v>17.9</v>
       </c>
       <c r="AA28" t="n">
         <v>19.7</v>
@@ -5476,7 +5543,7 @@
         <v>6.6</v>
       </c>
       <c r="AD28" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="AE28" t="n">
         <v>1</v>
@@ -5509,7 +5576,7 @@
         <v>1</v>
       </c>
       <c r="AO28" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AP28" t="n">
         <v>28</v>
@@ -5518,25 +5585,25 @@
         <v>4</v>
       </c>
       <c r="AR28" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AS28" t="n">
         <v>6</v>
       </c>
       <c r="AT28" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AU28" t="n">
         <v>2</v>
       </c>
       <c r="AV28" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AW28" t="n">
         <v>18</v>
       </c>
       <c r="AX28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AY28" t="n">
         <v>16</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-11-2013-14</t>
+          <t>2014-03-11</t>
         </is>
       </c>
     </row>
@@ -5658,13 +5725,13 @@
         <v>3.2</v>
       </c>
       <c r="AD29" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AE29" t="n">
         <v>12</v>
       </c>
       <c r="AF29" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG29" t="n">
         <v>12</v>
@@ -5682,7 +5749,7 @@
         <v>22</v>
       </c>
       <c r="AL29" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AM29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-11-2013-14</t>
+          <t>2014-03-11</t>
         </is>
       </c>
     </row>
@@ -5840,25 +5907,25 @@
         <v>-6</v>
       </c>
       <c r="AD30" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AE30" t="n">
         <v>24</v>
       </c>
       <c r="AF30" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AG30" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AH30" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI30" t="n">
         <v>26</v>
       </c>
       <c r="AJ30" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AK30" t="n">
         <v>23</v>
@@ -5876,7 +5943,7 @@
         <v>22</v>
       </c>
       <c r="AP30" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ30" t="n">
         <v>21</v>
@@ -5885,7 +5952,7 @@
         <v>19</v>
       </c>
       <c r="AS30" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AT30" t="n">
         <v>23</v>
@@ -5909,7 +5976,7 @@
         <v>18</v>
       </c>
       <c r="BA30" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BB30" t="n">
         <v>28</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-11-2013-14</t>
+          <t>2014-03-11</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>0.8</v>
       </c>
       <c r="AD31" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="AE31" t="n">
         <v>14</v>
@@ -6064,16 +6131,16 @@
         <v>26</v>
       </c>
       <c r="AR31" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AS31" t="n">
         <v>18</v>
       </c>
       <c r="AT31" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AU31" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV31" t="n">
         <v>13</v>
@@ -6097,7 +6164,7 @@
         <v>16</v>
       </c>
       <c r="BC31" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-11-2013-14</t>
+          <t>2014-03-11</t>
         </is>
       </c>
     </row>
